--- a/NEET_2024_Excel/Individual_Excel/220207.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/220207.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3155,215 +3155,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="C163" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" t="s">
-        <v>6</v>
-      </c>
-      <c r="E163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="C164" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="C165" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" t="s">
-        <v>6</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="C166" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166" t="s">
-        <v>6</v>
-      </c>
-      <c r="E166" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="C167" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" t="s">
-        <v>6</v>
-      </c>
-      <c r="E167" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="C168" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" t="s">
-        <v>6</v>
-      </c>
-      <c r="E168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="C169" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" t="s">
-        <v>6</v>
-      </c>
-      <c r="E169" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="C170" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" t="s">
-        <v>6</v>
-      </c>
-      <c r="E170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="C171" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" t="s">
-        <v>6</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="C172" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172" t="s">
-        <v>6</v>
-      </c>
-      <c r="E172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="C173" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173" t="s">
-        <v>6</v>
-      </c>
-      <c r="E173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="C174" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" t="s">
-        <v>6</v>
-      </c>
-      <c r="E174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="C175" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" t="s">
-        <v>6</v>
-      </c>
-      <c r="E175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="C176" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" t="s">
-        <v>6</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5">
-      <c r="C177" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" t="s">
-        <v>6</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5">
-      <c r="C178" t="s">
-        <v>5</v>
-      </c>
-      <c r="D178" t="s">
-        <v>6</v>
-      </c>
-      <c r="E178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5">
-      <c r="C179" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" t="s">
-        <v>6</v>
-      </c>
-      <c r="E179" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5">
-      <c r="C180" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" t="s">
-        <v>6</v>
-      </c>
-      <c r="E180" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5">
-      <c r="C181" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" t="s">
-        <v>6</v>
-      </c>
-      <c r="E181" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
